--- a/reports/corpus_dwi-unigram_trigram-fold-4.xlsx
+++ b/reports/corpus_dwi-unigram_trigram-fold-4.xlsx
@@ -586,88 +586,88 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9431438127090301</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6212121212121212</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3888888888888889</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.946969696969697</v>
+        <v>0.9924242424242424</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6220472440944882</v>
+        <v>0.9448818897637795</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1807228915662651</v>
+        <v>0.6626506024096386</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6140350877192983</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="O2" t="n">
-        <v>0.993963782696177</v>
+        <v>0.9678068410462777</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2389380530973451</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="R2" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5071090047393365</v>
+        <v>0.957345971563981</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6231884057971014</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7701149425287356</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.365</v>
+        <v>0.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6223277909738717</v>
+        <v>0.8602533650039589</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.442535092650976</v>
+        <v>0.7694615138289718</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8575583920145604</v>
+        <v>0.9035178160391616</v>
       </c>
     </row>
     <row r="3">
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9964664310954063</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9264705882352942</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -701,13 +701,13 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.9734513274336283</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -716,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3444909344490935</v>
+        <v>0.6073232323232324</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -734,34 +734,34 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.9950738916256158</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.9435483870967742</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9733333333333334</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6223277909738717</v>
+        <v>0.8602533650039589</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8016675183824081</v>
+        <v>0.8750912476771158</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6223277909738717</v>
+        <v>0.8602533650039589</v>
       </c>
     </row>
     <row r="4">
@@ -774,88 +774,88 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9690721649484536</v>
+        <v>0.9983305509181971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.9402985074626866</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9727626459143969</v>
+        <v>0.9961977186311787</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7669902912621359</v>
+        <v>0.97165991902834</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.7885304659498207</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7540983606557378</v>
+        <v>0.9295774647887324</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7608695652173912</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5116519937856033</v>
+        <v>0.7463149728471683</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.46875</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.6263736263736264</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6729559748427673</v>
+        <v>0.9758454106280193</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7678571428571428</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8701298701298702</v>
+        <v>0.9826589595375722</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.7622149837133551</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5309090909090909</v>
+        <v>0.8092485549132947</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6223277909738717</v>
+        <v>0.8602533650039589</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5269117431194404</v>
+        <v>0.8005954551733624</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6263470583979207</v>
+        <v>0.8622965493733747</v>
       </c>
     </row>
     <row r="5">
@@ -868,82 +868,82 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I5" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="L5" t="n">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="M5" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N5" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O5" t="n">
-        <v>1434</v>
+        <v>792</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="U5" t="n">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="V5" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="W5" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="Z5" t="n">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6223277909738717</v>
+        <v>0.8602533650039589</v>
       </c>
       <c r="AC5" t="n">
         <v>2526</v>
